--- a/RUDN/Correlations/deep.Corr_in_ERI.Eastern Africa.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_ERI.Eastern Africa.xlsx
@@ -13,10 +13,284 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+  <si>
+    <t>IT.CEL.SETS.P2:ERI</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:ERI</t>
+  </si>
+  <si>
+    <t>SH.ANM.CHLD.ZS:ERI</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:ERI</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:ERI</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:ERI</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:ERI</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.DH:ERI</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.FE.ZS:ERI</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS:ERI</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:ERI</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:ERI</t>
+  </si>
+  <si>
+    <t>SH.HIV.0014:ERI</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:ERI</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:ERI</t>
+  </si>
+  <si>
+    <t>SH.HIV.INCD.14:ERI</t>
+  </si>
+  <si>
+    <t>SH.HIV.INCD.TL:ERI</t>
+  </si>
+  <si>
+    <t>SH.HIV.INCD:ERI</t>
+  </si>
+  <si>
+    <t>SH.HIV.ORPH:ERI</t>
+  </si>
+  <si>
+    <t>SH.HIV.TOTL:ERI</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:ERI</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:ERI</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:ERI</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:ERI</t>
+  </si>
+  <si>
+    <t>SH.PRG.ANEM:ERI</t>
+  </si>
+  <si>
+    <t>SH.VAC.TTNS.ZS:ERI</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:ERI</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:ERI</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:ERI</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.CHLD.ZS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.CHLD.ZS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.DH:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.DH:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.FE.ZS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.FE.ZS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.0014:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.0014:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.INCD.14:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.INCD.14:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.INCD.TL:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.INCD.TL:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.INCD:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.INCD:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ORPH:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ORPH:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.TOTL:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.TOTL:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.PRG.ANEM:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.PRG.ANEM:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SH.VAC.TTNS.ZS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SH.VAC.TTNS.ZS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:ERI:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:ERI:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:ERI:p-value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +314,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +632,2936 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>-0.7403092466885787</v>
+      </c>
+      <c r="D2">
+        <v>0.8532034222552168</v>
+      </c>
+      <c r="E2">
+        <v>0.9992186412421172</v>
+      </c>
+      <c r="F2">
+        <v>0.714848150366559</v>
+      </c>
+      <c r="G2">
+        <v>0.7501181100017279</v>
+      </c>
+      <c r="H2">
+        <v>0.5712366057012844</v>
+      </c>
+      <c r="I2">
+        <v>0.9443256648505992</v>
+      </c>
+      <c r="J2">
+        <v>0.6881756426024465</v>
+      </c>
+      <c r="K2">
+        <v>0.9224969290726017</v>
+      </c>
+      <c r="L2">
+        <v>0.8707344205262496</v>
+      </c>
+      <c r="M2">
+        <v>0.8430798765642711</v>
+      </c>
+      <c r="N2">
+        <v>0.386045719790673</v>
+      </c>
+      <c r="P2">
+        <v>-0.7757452294446354</v>
+      </c>
+      <c r="Q2">
+        <v>0.6374946789725217</v>
+      </c>
+      <c r="R2">
+        <v>0.8555322272688459</v>
+      </c>
+      <c r="S2">
+        <v>0.6420269163564107</v>
+      </c>
+      <c r="T2">
+        <v>-0.6345426803102873</v>
+      </c>
+      <c r="U2">
+        <v>0.9102332206056101</v>
+      </c>
+      <c r="V2">
+        <v>-0.4318733212938569</v>
+      </c>
+      <c r="W2">
+        <v>0.5400107254111496</v>
+      </c>
+      <c r="Y2">
+        <v>0.4269760142190669</v>
+      </c>
+      <c r="Z2">
+        <v>0.9408302942781427</v>
+      </c>
+      <c r="AA2">
+        <v>-0.8364203938818611</v>
+      </c>
+      <c r="AB2">
+        <v>0.5375273575294498</v>
+      </c>
+      <c r="AC2">
+        <v>0.3464508535582338</v>
+      </c>
+      <c r="AD2">
+        <v>0.8676214695259487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0.002463015154384133</v>
+      </c>
+      <c r="D3">
+        <v>0.000104496163105992</v>
+      </c>
+      <c r="E3">
+        <v>3.279953107758852e-18</v>
+      </c>
+      <c r="F3">
+        <v>0.004061666561028697</v>
+      </c>
+      <c r="G3">
+        <v>0.002001073156152881</v>
+      </c>
+      <c r="H3">
+        <v>0.03285948430315415</v>
+      </c>
+      <c r="I3">
+        <v>3.810975261281179e-07</v>
+      </c>
+      <c r="J3">
+        <v>0.006511152297752559</v>
+      </c>
+      <c r="K3">
+        <v>2.643389137131574e-06</v>
+      </c>
+      <c r="L3">
+        <v>5.069261449126881e-05</v>
+      </c>
+      <c r="M3">
+        <v>0.0001523572645136409</v>
+      </c>
+      <c r="N3">
+        <v>0.1727753201839112</v>
+      </c>
+      <c r="P3">
+        <v>0.001110617138305338</v>
+      </c>
+      <c r="Q3">
+        <v>0.01418720713601442</v>
+      </c>
+      <c r="R3">
+        <v>9.543951622163052e-05</v>
+      </c>
+      <c r="S3">
+        <v>0.01330475356874977</v>
+      </c>
+      <c r="T3">
+        <v>0.01478556077855814</v>
+      </c>
+      <c r="U3">
+        <v>6.210729625867929e-06</v>
+      </c>
+      <c r="V3">
+        <v>0.1230616850372541</v>
+      </c>
+      <c r="W3">
+        <v>0.04622362798586544</v>
+      </c>
+      <c r="Y3">
+        <v>0.1278460712585434</v>
+      </c>
+      <c r="Z3">
+        <v>5.449725338333111e-07</v>
+      </c>
+      <c r="AA3">
+        <v>0.0001925557538755876</v>
+      </c>
+      <c r="AB3">
+        <v>0.04743421874052087</v>
+      </c>
+      <c r="AC3">
+        <v>0.2249493434661205</v>
+      </c>
+      <c r="AD3">
+        <v>5.806305876954648e-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>-0.9777094376995258</v>
+      </c>
+      <c r="E4">
+        <v>0.8371925577364124</v>
+      </c>
+      <c r="Z4">
+        <v>0.9790617273041935</v>
+      </c>
+      <c r="AB4">
+        <v>0.1250814148286998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1.688039338668008e-09</v>
+      </c>
+      <c r="E5">
+        <v>0.0001874970329729652</v>
+      </c>
+      <c r="Z5">
+        <v>1.162976064747084e-09</v>
+      </c>
+      <c r="AB5">
+        <v>0.6700659596841683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>-0.7222081506436639</v>
+      </c>
+      <c r="Z6">
+        <v>0.9298436605099707</v>
+      </c>
+      <c r="AB6">
+        <v>0.5473268347986769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>0.003533851323191281</v>
+      </c>
+      <c r="Z7">
+        <v>1.47805172813944e-06</v>
+      </c>
+      <c r="AB7">
+        <v>0.04278822746083479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>-0.9974971586526828</v>
+      </c>
+      <c r="D8">
+        <v>0.9693745854250705</v>
+      </c>
+      <c r="E8">
+        <v>0.6961992317170862</v>
+      </c>
+      <c r="G8">
+        <v>0.9976050855109021</v>
+      </c>
+      <c r="H8">
+        <v>0.9778836165106678</v>
+      </c>
+      <c r="Z8">
+        <v>0.9038439743898453</v>
+      </c>
+      <c r="AB8">
+        <v>-0.1021062325808344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>3.529893117647849e-15</v>
+      </c>
+      <c r="D9">
+        <v>1.115090831477712e-08</v>
+      </c>
+      <c r="E9">
+        <v>0.005678088665301604</v>
+      </c>
+      <c r="G9">
+        <v>2.710205580405403e-15</v>
+      </c>
+      <c r="H9">
+        <v>1.611033645657075e-09</v>
+      </c>
+      <c r="Z9">
+        <v>9.249911625021102e-06</v>
+      </c>
+      <c r="AB9">
+        <v>0.7283384429498283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>-0.9982056273102131</v>
+      </c>
+      <c r="D10">
+        <v>0.9830620919583405</v>
+      </c>
+      <c r="E10">
+        <v>0.7314255489897264</v>
+      </c>
+      <c r="Z10">
+        <v>0.9271169010560913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>4.800620923688403e-16</v>
+      </c>
+      <c r="D11">
+        <v>3.287267393155355e-10</v>
+      </c>
+      <c r="E11">
+        <v>0.002950591784028827</v>
+      </c>
+      <c r="Z11">
+        <v>1.846878899856975e-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>-0.9648103546169196</v>
+      </c>
+      <c r="D12">
+        <v>0.8978790689827568</v>
+      </c>
+      <c r="E12">
+        <v>0.5513673459328083</v>
+      </c>
+      <c r="G12">
+        <v>0.9617074175287095</v>
+      </c>
+      <c r="Z12">
+        <v>0.8000438308391267</v>
+      </c>
+      <c r="AB12">
+        <v>-0.2766039448762716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>2.540999505245867e-08</v>
+      </c>
+      <c r="D13">
+        <v>1.309761920309765e-05</v>
+      </c>
+      <c r="E13">
+        <v>0.04097315286847322</v>
+      </c>
+      <c r="G13">
+        <v>4.190571748749953e-08</v>
+      </c>
+      <c r="Z13">
+        <v>0.0005906950693623138</v>
+      </c>
+      <c r="AB13">
+        <v>0.3384042385395382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>-0.8492273833893325</v>
+      </c>
+      <c r="D14">
+        <v>0.9240848928508492</v>
+      </c>
+      <c r="E14">
+        <v>0.9363304624863096</v>
+      </c>
+      <c r="F14">
+        <v>0.8434543578747511</v>
+      </c>
+      <c r="G14">
+        <v>0.8644497968786994</v>
+      </c>
+      <c r="H14">
+        <v>0.7482773570003978</v>
+      </c>
+      <c r="L14">
+        <v>0.9266560625574665</v>
+      </c>
+      <c r="M14">
+        <v>0.9183970414303961</v>
+      </c>
+      <c r="N14">
+        <v>0.5994835747142413</v>
+      </c>
+      <c r="P14">
+        <v>-0.8877630956268091</v>
+      </c>
+      <c r="Q14">
+        <v>0.7092991638989181</v>
+      </c>
+      <c r="T14">
+        <v>-0.4059892018817792</v>
+      </c>
+      <c r="V14">
+        <v>-0.4149541417857587</v>
+      </c>
+      <c r="W14">
+        <v>0.6296970693210147</v>
+      </c>
+      <c r="Y14">
+        <v>0.3687414185605299</v>
+      </c>
+      <c r="Z14">
+        <v>0.9626395265438714</v>
+      </c>
+      <c r="AA14">
+        <v>-0.8908385252400439</v>
+      </c>
+      <c r="AB14">
+        <v>0.3852164595994567</v>
+      </c>
+      <c r="AD14">
+        <v>0.9250525466257942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0.0001215658943416401</v>
+      </c>
+      <c r="D15">
+        <v>2.342828059488341e-06</v>
+      </c>
+      <c r="E15">
+        <v>8.376786756890053e-07</v>
+      </c>
+      <c r="F15">
+        <v>0.0001503170912814845</v>
+      </c>
+      <c r="G15">
+        <v>6.644790760097885e-05</v>
+      </c>
+      <c r="H15">
+        <v>0.002082048631948474</v>
+      </c>
+      <c r="L15">
+        <v>1.916113648405207e-06</v>
+      </c>
+      <c r="M15">
+        <v>3.568987670903925e-06</v>
+      </c>
+      <c r="N15">
+        <v>0.0234588815088848</v>
+      </c>
+      <c r="P15">
+        <v>2.256796413397821e-05</v>
+      </c>
+      <c r="Q15">
+        <v>0.004498995145657496</v>
+      </c>
+      <c r="T15">
+        <v>0.1497655612365975</v>
+      </c>
+      <c r="V15">
+        <v>0.1401184619665231</v>
+      </c>
+      <c r="W15">
+        <v>0.01580924098484045</v>
+      </c>
+      <c r="Y15">
+        <v>0.1945036508061359</v>
+      </c>
+      <c r="Z15">
+        <v>3.621930208467608e-08</v>
+      </c>
+      <c r="AA15">
+        <v>1.923472754012951e-05</v>
+      </c>
+      <c r="AB15">
+        <v>0.1737789380703822</v>
+      </c>
+      <c r="AD15">
+        <v>2.173903971046695e-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>-0.9904758160466105</v>
+      </c>
+      <c r="D16">
+        <v>0.9521798518464737</v>
+      </c>
+      <c r="E16">
+        <v>0.6702456959412423</v>
+      </c>
+      <c r="F16">
+        <v>0.9966795125880762</v>
+      </c>
+      <c r="G16">
+        <v>0.9894127685973331</v>
+      </c>
+      <c r="H16">
+        <v>0.9878958093439929</v>
+      </c>
+      <c r="I16">
+        <v>0.8324243699965614</v>
+      </c>
+      <c r="K16">
+        <v>0.8780014631503996</v>
+      </c>
+      <c r="L16">
+        <v>0.9312730661318214</v>
+      </c>
+      <c r="M16">
+        <v>0.9524544464133973</v>
+      </c>
+      <c r="N16">
+        <v>0.9280435584679454</v>
+      </c>
+      <c r="P16">
+        <v>-0.9900196589120134</v>
+      </c>
+      <c r="Q16">
+        <v>0.8966217839911336</v>
+      </c>
+      <c r="R16">
+        <v>0.3902896196950681</v>
+      </c>
+      <c r="S16">
+        <v>0.2411533122663517</v>
+      </c>
+      <c r="U16">
+        <v>0.9119523586152112</v>
+      </c>
+      <c r="V16">
+        <v>-0.4438892771339213</v>
+      </c>
+      <c r="W16">
+        <v>0.3887211086927193</v>
+      </c>
+      <c r="Z16">
+        <v>0.8813183711034717</v>
+      </c>
+      <c r="AA16">
+        <v>-0.9187188176309201</v>
+      </c>
+      <c r="AB16">
+        <v>-0.1450527627523417</v>
+      </c>
+      <c r="AD16">
+        <v>0.9338542904946934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>1.055792391066657e-11</v>
+      </c>
+      <c r="D17">
+        <v>1.556797020480785e-07</v>
+      </c>
+      <c r="E17">
+        <v>0.008715749033589218</v>
+      </c>
+      <c r="F17">
+        <v>1.921369358903538e-14</v>
+      </c>
+      <c r="G17">
+        <v>1.987527216322689e-11</v>
+      </c>
+      <c r="H17">
+        <v>4.424000221003293e-11</v>
+      </c>
+      <c r="I17">
+        <v>0.0002205321079865294</v>
+      </c>
+      <c r="K17">
+        <v>3.641551485672414e-05</v>
+      </c>
+      <c r="L17">
+        <v>1.310440576627997e-06</v>
+      </c>
+      <c r="M17">
+        <v>1.504826221039729e-07</v>
+      </c>
+      <c r="N17">
+        <v>1.713890343004789e-06</v>
+      </c>
+      <c r="P17">
+        <v>1.396554975156224e-11</v>
+      </c>
+      <c r="Q17">
+        <v>1.405591028088912e-05</v>
+      </c>
+      <c r="R17">
+        <v>0.1676980327722334</v>
+      </c>
+      <c r="S17">
+        <v>0.4062276413348024</v>
+      </c>
+      <c r="U17">
+        <v>5.551528929607297e-06</v>
+      </c>
+      <c r="V17">
+        <v>0.1118405714872716</v>
+      </c>
+      <c r="W17">
+        <v>0.1695630870049993</v>
+      </c>
+      <c r="Z17">
+        <v>3.109557608049613e-05</v>
+      </c>
+      <c r="AA17">
+        <v>3.487859653352512e-06</v>
+      </c>
+      <c r="AB17">
+        <v>0.620764720853047</v>
+      </c>
+      <c r="AD17">
+        <v>1.047448993324874e-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>-0.915277397994362</v>
+      </c>
+      <c r="D18">
+        <v>0.9751716339088952</v>
+      </c>
+      <c r="E18">
+        <v>0.9095030152110517</v>
+      </c>
+      <c r="F18">
+        <v>0.901784367288901</v>
+      </c>
+      <c r="G18">
+        <v>0.9254442207191711</v>
+      </c>
+      <c r="H18">
+        <v>0.8006936751075383</v>
+      </c>
+      <c r="I18">
+        <v>0.9598124724204952</v>
+      </c>
+      <c r="L18">
+        <v>0.9821719667795594</v>
+      </c>
+      <c r="M18">
+        <v>0.9735448821604685</v>
+      </c>
+      <c r="N18">
+        <v>0.6468725940719364</v>
+      </c>
+      <c r="P18">
+        <v>-0.9332477936442325</v>
+      </c>
+      <c r="Q18">
+        <v>0.7577143687761408</v>
+      </c>
+      <c r="S18">
+        <v>0.5967332516515607</v>
+      </c>
+      <c r="T18">
+        <v>-0.3930650935560707</v>
+      </c>
+      <c r="V18">
+        <v>-0.520659637404953</v>
+      </c>
+      <c r="W18">
+        <v>0.4826625142530375</v>
+      </c>
+      <c r="Y18">
+        <v>0.3435443345619504</v>
+      </c>
+      <c r="Z18">
+        <v>0.9895602712200322</v>
+      </c>
+      <c r="AA18">
+        <v>-0.9086824984856774</v>
+      </c>
+      <c r="AB18">
+        <v>0.3046910174174272</v>
+      </c>
+      <c r="AD18">
+        <v>0.9812023655772361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>4.439197911078963e-06</v>
+      </c>
+      <c r="D19">
+        <v>3.205984855999842e-09</v>
+      </c>
+      <c r="E19">
+        <v>6.509521240057431e-06</v>
+      </c>
+      <c r="F19">
+        <v>1.045610363679086e-05</v>
+      </c>
+      <c r="G19">
+        <v>2.108445798238814e-06</v>
+      </c>
+      <c r="H19">
+        <v>0.0005801450000403643</v>
+      </c>
+      <c r="I19">
+        <v>5.576247301133461e-08</v>
+      </c>
+      <c r="L19">
+        <v>4.461315601770921e-10</v>
+      </c>
+      <c r="M19">
+        <v>4.675214450709542e-09</v>
+      </c>
+      <c r="N19">
+        <v>0.01240837848740903</v>
+      </c>
+      <c r="P19">
+        <v>1.104935840683524e-06</v>
+      </c>
+      <c r="Q19">
+        <v>0.001692908618458296</v>
+      </c>
+      <c r="S19">
+        <v>0.02427257362500723</v>
+      </c>
+      <c r="T19">
+        <v>0.1644306962415536</v>
+      </c>
+      <c r="V19">
+        <v>0.05627608894455685</v>
+      </c>
+      <c r="W19">
+        <v>0.08044833329114562</v>
+      </c>
+      <c r="Y19">
+        <v>0.2291246521508304</v>
+      </c>
+      <c r="Z19">
+        <v>1.8276447669117e-11</v>
+      </c>
+      <c r="AA19">
+        <v>6.859252405227144e-06</v>
+      </c>
+      <c r="AB19">
+        <v>0.2895043710866384</v>
+      </c>
+      <c r="AD19">
+        <v>6.117199731833603e-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>-0.9643169289444278</v>
+      </c>
+      <c r="D20">
+        <v>0.99788659698337</v>
+      </c>
+      <c r="E20">
+        <v>0.8548625693674389</v>
+      </c>
+      <c r="F20">
+        <v>0.9531941681488059</v>
+      </c>
+      <c r="G20">
+        <v>0.971160867820426</v>
+      </c>
+      <c r="H20">
+        <v>0.8698466672044549</v>
+      </c>
+      <c r="Z20">
+        <v>0.9851996458236698</v>
+      </c>
+      <c r="AA20">
+        <v>-0.9250979514159058</v>
+      </c>
+      <c r="AB20">
+        <v>0.1748704989730639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>2.759452479656878e-08</v>
+      </c>
+      <c r="D21">
+        <v>1.280614219814966e-15</v>
+      </c>
+      <c r="E21">
+        <v>9.797572500041369e-05</v>
+      </c>
+      <c r="F21">
+        <v>1.371917770960565e-07</v>
+      </c>
+      <c r="G21">
+        <v>7.805370030433973e-09</v>
+      </c>
+      <c r="H21">
+        <v>5.271192568387259e-05</v>
+      </c>
+      <c r="Z21">
+        <v>1.469977883139317e-10</v>
+      </c>
+      <c r="AA21">
+        <v>2.166231060162589e-06</v>
+      </c>
+      <c r="AB21">
+        <v>0.5498802244241996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>-0.9779176617032599</v>
+      </c>
+      <c r="D22">
+        <v>0.999484106934205</v>
+      </c>
+      <c r="E22">
+        <v>0.8262133410972967</v>
+      </c>
+      <c r="F22">
+        <v>0.9705273538705502</v>
+      </c>
+      <c r="G22">
+        <v>0.9843119280446277</v>
+      </c>
+      <c r="H22">
+        <v>0.9003189907913436</v>
+      </c>
+      <c r="L22">
+        <v>0.9976960794642289</v>
+      </c>
+      <c r="Z22">
+        <v>0.9749117046449457</v>
+      </c>
+      <c r="AA22">
+        <v>-0.9288873199338911</v>
+      </c>
+      <c r="AB22">
+        <v>0.1212817919133384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>1.596328449413862e-09</v>
+      </c>
+      <c r="D23">
+        <v>2.718754451660113e-19</v>
+      </c>
+      <c r="E23">
+        <v>0.0002704668818639362</v>
+      </c>
+      <c r="F23">
+        <v>8.880118498090176e-09</v>
+      </c>
+      <c r="G23">
+        <v>2.080963560432383e-10</v>
+      </c>
+      <c r="H23">
+        <v>1.139048358299996e-05</v>
+      </c>
+      <c r="L23">
+        <v>2.148581843091068e-15</v>
+      </c>
+      <c r="Z23">
+        <v>3.410792166753214e-09</v>
+      </c>
+      <c r="AA23">
+        <v>1.599760930457499e-06</v>
+      </c>
+      <c r="AB23">
+        <v>0.6795945710783953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>-0.8843455524497016</v>
+      </c>
+      <c r="D24">
+        <v>0.7758336902321643</v>
+      </c>
+      <c r="E24">
+        <v>0.3661642909677186</v>
+      </c>
+      <c r="F24">
+        <v>0.9051662172685594</v>
+      </c>
+      <c r="G24">
+        <v>0.8756252763439674</v>
+      </c>
+      <c r="H24">
+        <v>0.971053766127267</v>
+      </c>
+      <c r="L24">
+        <v>0.7371948579275045</v>
+      </c>
+      <c r="M24">
+        <v>0.7786171566453988</v>
+      </c>
+      <c r="Q24">
+        <v>0.838058397243144</v>
+      </c>
+      <c r="T24">
+        <v>0.424549118981539</v>
+      </c>
+      <c r="V24">
+        <v>-0.3332932828696047</v>
+      </c>
+      <c r="W24">
+        <v>0.2466940786428214</v>
+      </c>
+      <c r="Y24">
+        <v>-0.2349648807981636</v>
+      </c>
+      <c r="Z24">
+        <v>0.64785412875531</v>
+      </c>
+      <c r="AA24">
+        <v>-0.7636706016887934</v>
+      </c>
+      <c r="AB24">
+        <v>-0.4565298205350541</v>
+      </c>
+      <c r="AD24">
+        <v>0.7418289238278192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>2.681166744776746e-05</v>
+      </c>
+      <c r="D25">
+        <v>0.001108221167044062</v>
+      </c>
+      <c r="E25">
+        <v>0.1978816212650212</v>
+      </c>
+      <c r="F25">
+        <v>8.537588497186527e-06</v>
+      </c>
+      <c r="G25">
+        <v>4.066572397905802e-05</v>
+      </c>
+      <c r="H25">
+        <v>7.97906414919243e-09</v>
+      </c>
+      <c r="L25">
+        <v>0.002626076897727527</v>
+      </c>
+      <c r="M25">
+        <v>0.001034911768740012</v>
+      </c>
+      <c r="Q25">
+        <v>0.0001819531606850636</v>
+      </c>
+      <c r="T25">
+        <v>0.1302628608550082</v>
+      </c>
+      <c r="V25">
+        <v>0.2442302647482334</v>
+      </c>
+      <c r="W25">
+        <v>0.3951904891241042</v>
+      </c>
+      <c r="Y25">
+        <v>0.4187412727695719</v>
+      </c>
+      <c r="Z25">
+        <v>0.01223259238761967</v>
+      </c>
+      <c r="AA25">
+        <v>0.001478710175021809</v>
+      </c>
+      <c r="AB25">
+        <v>0.1008141075655603</v>
+      </c>
+      <c r="AD25">
+        <v>0.002386411011885034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>0.9963376716283083</v>
+      </c>
+      <c r="C26">
+        <v>-0.7718531229554684</v>
+      </c>
+      <c r="D26">
+        <v>-0.9813652031718566</v>
+      </c>
+      <c r="E26">
+        <v>-0.7552704918578154</v>
+      </c>
+      <c r="F26">
+        <v>-0.9947170365720548</v>
+      </c>
+      <c r="G26">
+        <v>-0.9956503851879226</v>
+      </c>
+      <c r="H26">
+        <v>-0.9592696206091119</v>
+      </c>
+      <c r="I26">
+        <v>-0.8826286109183926</v>
+      </c>
+      <c r="J26">
+        <v>-0.9907252589337018</v>
+      </c>
+      <c r="K26">
+        <v>-0.9292756138665118</v>
+      </c>
+      <c r="L26">
+        <v>-0.9673517209444917</v>
+      </c>
+      <c r="M26">
+        <v>-0.9799453645926819</v>
+      </c>
+      <c r="N26">
+        <v>-0.8745585675010705</v>
+      </c>
+      <c r="O26">
+        <v>0.994938669922257</v>
+      </c>
+      <c r="P26">
+        <v>0.9995351686196512</v>
+      </c>
+      <c r="Q26">
+        <v>-0.8973837148480224</v>
+      </c>
+      <c r="R26">
+        <v>-0.4979368229193942</v>
+      </c>
+      <c r="S26">
+        <v>-0.3366188763079413</v>
+      </c>
+      <c r="U26">
+        <v>-0.9537552663789473</v>
+      </c>
+      <c r="V26">
+        <v>0.4843636163299353</v>
+      </c>
+      <c r="W26">
+        <v>-0.4001615752544091</v>
+      </c>
+      <c r="X26">
+        <v>-0.4153573524148634</v>
+      </c>
+      <c r="Z26">
+        <v>-0.9337261947823798</v>
+      </c>
+      <c r="AA26">
+        <v>0.9425536717666193</v>
+      </c>
+      <c r="AC26">
+        <v>-0.2661616489477031</v>
+      </c>
+      <c r="AD26">
+        <v>-0.9689263537485457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>3.456407632202555e-14</v>
+      </c>
+      <c r="C27">
+        <v>0.001220200813967191</v>
+      </c>
+      <c r="D27">
+        <v>5.808100217084565e-10</v>
+      </c>
+      <c r="E27">
+        <v>0.001787617533592732</v>
+      </c>
+      <c r="F27">
+        <v>3.103387630936338e-13</v>
+      </c>
+      <c r="G27">
+        <v>9.686021805906148e-14</v>
+      </c>
+      <c r="H27">
+        <v>6.036590176136099e-08</v>
+      </c>
+      <c r="I27">
+        <v>2.917758244731779e-05</v>
+      </c>
+      <c r="J27">
+        <v>9.008565487435222e-12</v>
+      </c>
+      <c r="K27">
+        <v>1.54938590209035e-06</v>
+      </c>
+      <c r="L27">
+        <v>1.629573515308295e-08</v>
+      </c>
+      <c r="M27">
+        <v>8.995872685278554e-10</v>
+      </c>
+      <c r="N27">
+        <v>4.270101597475065e-05</v>
+      </c>
+      <c r="O27">
+        <v>2.400850094702004e-13</v>
+      </c>
+      <c r="P27">
+        <v>1.454896189551543e-19</v>
+      </c>
+      <c r="Q27">
+        <v>1.346856434638314e-05</v>
+      </c>
+      <c r="R27">
+        <v>0.06998951659724623</v>
+      </c>
+      <c r="S27">
+        <v>0.2392649249474047</v>
+      </c>
+      <c r="U27">
+        <v>1.277714544237078e-07</v>
+      </c>
+      <c r="V27">
+        <v>0.07923220832093329</v>
+      </c>
+      <c r="W27">
+        <v>0.1562667308722208</v>
+      </c>
+      <c r="X27">
+        <v>0.1396945774090649</v>
+      </c>
+      <c r="Z27">
+        <v>1.059380242264787e-06</v>
+      </c>
+      <c r="AA27">
+        <v>4.581346250014348e-07</v>
+      </c>
+      <c r="AC27">
+        <v>0.3576866023059581</v>
+      </c>
+      <c r="AD27">
+        <v>1.215484550675425e-08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>0.988966778732175</v>
+      </c>
+      <c r="C28">
+        <v>-0.820501984456542</v>
+      </c>
+      <c r="D28">
+        <v>-0.992866134517969</v>
+      </c>
+      <c r="E28">
+        <v>-0.8048835979081171</v>
+      </c>
+      <c r="F28">
+        <v>-0.9854946180574544</v>
+      </c>
+      <c r="G28">
+        <v>-0.9916834232522497</v>
+      </c>
+      <c r="H28">
+        <v>-0.9349400262305142</v>
+      </c>
+      <c r="I28">
+        <v>-0.9161165003197631</v>
+      </c>
+      <c r="J28">
+        <v>-0.9768118697504555</v>
+      </c>
+      <c r="K28">
+        <v>-0.9562389974732107</v>
+      </c>
+      <c r="L28">
+        <v>-0.9834009636143574</v>
+      </c>
+      <c r="M28">
+        <v>-0.991584436215859</v>
+      </c>
+      <c r="N28">
+        <v>-0.8316688531731379</v>
+      </c>
+      <c r="P28">
+        <v>0.9965416600471629</v>
+      </c>
+      <c r="Q28">
+        <v>-0.8721537456758883</v>
+      </c>
+      <c r="R28">
+        <v>-0.5484349970925724</v>
+      </c>
+      <c r="S28">
+        <v>-0.4044777669224213</v>
+      </c>
+      <c r="T28">
+        <v>0.1347335596009058</v>
+      </c>
+      <c r="U28">
+        <v>-0.9752430785704146</v>
+      </c>
+      <c r="V28">
+        <v>0.4880519918011771</v>
+      </c>
+      <c r="W28">
+        <v>-0.4468849311233571</v>
+      </c>
+      <c r="X28">
+        <v>-0.3437642449869832</v>
+      </c>
+      <c r="Y28">
+        <v>-0.1515660603131679</v>
+      </c>
+      <c r="Z28">
+        <v>-0.960103525003522</v>
+      </c>
+      <c r="AA28">
+        <v>0.9448878970837546</v>
+      </c>
+      <c r="AC28">
+        <v>-0.2729751978442043</v>
+      </c>
+      <c r="AD28">
+        <v>-0.9843771061258296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>2.543406623450115e-11</v>
+      </c>
+      <c r="C29">
+        <v>0.0003240904945021048</v>
+      </c>
+      <c r="D29">
+        <v>1.874101800336518e-12</v>
+      </c>
+      <c r="E29">
+        <v>0.0005156978594224219</v>
+      </c>
+      <c r="F29">
+        <v>1.303554705253657e-10</v>
+      </c>
+      <c r="G29">
+        <v>4.692532221020803e-12</v>
+      </c>
+      <c r="H29">
+        <v>9.506992729072248e-07</v>
+      </c>
+      <c r="I29">
+        <v>4.189628894057482e-06</v>
+      </c>
+      <c r="J29">
+        <v>2.135049661080075e-09</v>
+      </c>
+      <c r="K29">
+        <v>9.224368768176348e-08</v>
+      </c>
+      <c r="L29">
+        <v>2.914010572978851e-10</v>
+      </c>
+      <c r="M29">
+        <v>5.03670525861391e-12</v>
+      </c>
+      <c r="N29">
+        <v>0.0002261732828251009</v>
+      </c>
+      <c r="P29">
+        <v>2.451757216705697e-14</v>
+      </c>
+      <c r="Q29">
+        <v>4.759550512974228e-05</v>
+      </c>
+      <c r="R29">
+        <v>0.04228466965252246</v>
+      </c>
+      <c r="S29">
+        <v>0.151434183433195</v>
+      </c>
+      <c r="T29">
+        <v>0.6460696811928351</v>
+      </c>
+      <c r="U29">
+        <v>3.151516579109543e-09</v>
+      </c>
+      <c r="V29">
+        <v>0.0766400091981192</v>
+      </c>
+      <c r="W29">
+        <v>0.1091561073974533</v>
+      </c>
+      <c r="X29">
+        <v>0.2288070817197946</v>
+      </c>
+      <c r="Y29">
+        <v>0.6049889127840891</v>
+      </c>
+      <c r="Z29">
+        <v>5.341664818036693e-08</v>
+      </c>
+      <c r="AA29">
+        <v>3.590232909317617e-07</v>
+      </c>
+      <c r="AC29">
+        <v>0.3450380295130867</v>
+      </c>
+      <c r="AD29">
+        <v>2.029910861025156e-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>0.9961840538980222</v>
+      </c>
+      <c r="D30">
+        <v>-0.9842044068969577</v>
+      </c>
+      <c r="E30">
+        <v>-0.7588471062326279</v>
+      </c>
+      <c r="F30">
+        <v>-0.9951085775307447</v>
+      </c>
+      <c r="G30">
+        <v>-0.9969196502197667</v>
+      </c>
+      <c r="H30">
+        <v>-0.9581462975931831</v>
+      </c>
+      <c r="L30">
+        <v>-0.9709900934528036</v>
+      </c>
+      <c r="M30">
+        <v>-0.9833756238065302</v>
+      </c>
+      <c r="N30">
+        <v>-0.8707293009410387</v>
+      </c>
+      <c r="Q30">
+        <v>-0.8900979961303677</v>
+      </c>
+      <c r="V30">
+        <v>0.4851730855618255</v>
+      </c>
+      <c r="W30">
+        <v>-0.4089337548751217</v>
+      </c>
+      <c r="Z30">
+        <v>-0.937163596744251</v>
+      </c>
+      <c r="AA30">
+        <v>0.9389674563397326</v>
+      </c>
+      <c r="AD30">
+        <v>-0.9724810597323496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>4.421315295822114e-14</v>
+      </c>
+      <c r="D31">
+        <v>2.167514349733494e-10</v>
+      </c>
+      <c r="E31">
+        <v>0.001650385481878061</v>
+      </c>
+      <c r="F31">
+        <v>1.95680051635551e-13</v>
+      </c>
+      <c r="G31">
+        <v>1.225247425217229e-14</v>
+      </c>
+      <c r="H31">
+        <v>7.08959871822827e-08</v>
+      </c>
+      <c r="L31">
+        <v>8.083837932919076e-09</v>
+      </c>
+      <c r="M31">
+        <v>2.940642792247899e-10</v>
+      </c>
+      <c r="N31">
+        <v>5.070407603846614e-05</v>
+      </c>
+      <c r="Q31">
+        <v>1.99978539409428e-05</v>
+      </c>
+      <c r="V31">
+        <v>0.07865809184328214</v>
+      </c>
+      <c r="W31">
+        <v>0.1465498333410356</v>
+      </c>
+      <c r="Z31">
+        <v>7.754436168991556e-07</v>
+      </c>
+      <c r="AA31">
+        <v>6.536896153444788e-07</v>
+      </c>
+      <c r="AD31">
+        <v>5.909257953577428e-09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>-0.8963428105396583</v>
+      </c>
+      <c r="D32">
+        <v>0.8403792410216306</v>
+      </c>
+      <c r="E32">
+        <v>0.6293015315897782</v>
+      </c>
+      <c r="F32">
+        <v>0.8886725778136555</v>
+      </c>
+      <c r="G32">
+        <v>0.8758083882687848</v>
+      </c>
+      <c r="H32">
+        <v>0.8810742922042939</v>
+      </c>
+      <c r="L32">
+        <v>0.8162583152557077</v>
+      </c>
+      <c r="M32">
+        <v>0.8317867389698692</v>
+      </c>
+      <c r="T32">
+        <v>0.104432632924613</v>
+      </c>
+      <c r="V32">
+        <v>-0.4988392492030566</v>
+      </c>
+      <c r="W32">
+        <v>0.1180295512567577</v>
+      </c>
+      <c r="Y32">
+        <v>-0.2096392471087653</v>
+      </c>
+      <c r="Z32">
+        <v>0.7917409441821996</v>
+      </c>
+      <c r="AA32">
+        <v>-0.8665900953326996</v>
+      </c>
+      <c r="AB32">
+        <v>-0.2590227522969274</v>
+      </c>
+      <c r="AD32">
+        <v>0.819074769252309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>1.427613979264149e-05</v>
+      </c>
+      <c r="D33">
+        <v>0.0001677448724380584</v>
+      </c>
+      <c r="E33">
+        <v>0.01589512205353714</v>
+      </c>
+      <c r="F33">
+        <v>2.153655495567997e-05</v>
+      </c>
+      <c r="G33">
+        <v>4.032444581321444e-05</v>
+      </c>
+      <c r="H33">
+        <v>3.146399732678501e-05</v>
+      </c>
+      <c r="L33">
+        <v>0.0003692370855283901</v>
+      </c>
+      <c r="M33">
+        <v>0.0002252854698576294</v>
+      </c>
+      <c r="T33">
+        <v>0.7223695386358746</v>
+      </c>
+      <c r="V33">
+        <v>0.06940355892824127</v>
+      </c>
+      <c r="W33">
+        <v>0.6877859969003626</v>
+      </c>
+      <c r="Y33">
+        <v>0.471943490313092</v>
+      </c>
+      <c r="Z33">
+        <v>0.0007395818662843903</v>
+      </c>
+      <c r="AA33">
+        <v>6.068910641756432e-05</v>
+      </c>
+      <c r="AB33">
+        <v>0.3712065332207874</v>
+      </c>
+      <c r="AD33">
+        <v>0.0003387465958906512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>-0.456423470535607</v>
+      </c>
+      <c r="D34">
+        <v>0.5904390773851607</v>
+      </c>
+      <c r="E34">
+        <v>0.8605001454074719</v>
+      </c>
+      <c r="F34">
+        <v>0.4192835832594616</v>
+      </c>
+      <c r="G34">
+        <v>0.4624050699525619</v>
+      </c>
+      <c r="H34">
+        <v>0.2608804699129064</v>
+      </c>
+      <c r="I34">
+        <v>0.7497524055532312</v>
+      </c>
+      <c r="K34">
+        <v>0.7111152937277549</v>
+      </c>
+      <c r="L34">
+        <v>0.6171845182525371</v>
+      </c>
+      <c r="M34">
+        <v>0.5763986030943694</v>
+      </c>
+      <c r="P34">
+        <v>-0.4976390854184193</v>
+      </c>
+      <c r="Q34">
+        <v>0.3650023806056397</v>
+      </c>
+      <c r="S34">
+        <v>0.6212081164383159</v>
+      </c>
+      <c r="T34">
+        <v>-0.7337074634492052</v>
+      </c>
+      <c r="V34">
+        <v>-0.2183033973985089</v>
+      </c>
+      <c r="W34">
+        <v>0.409201446733348</v>
+      </c>
+      <c r="Y34">
+        <v>0.5333643918961233</v>
+      </c>
+      <c r="Z34">
+        <v>0.7169282691858477</v>
+      </c>
+      <c r="AA34">
+        <v>-0.5406081194238992</v>
+      </c>
+      <c r="AB34">
+        <v>0.6403744799904144</v>
+      </c>
+      <c r="AD34">
+        <v>0.6118377574711952</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35">
+        <v>0.1009036109461667</v>
+      </c>
+      <c r="D35">
+        <v>0.02621430572152832</v>
+      </c>
+      <c r="E35">
+        <v>7.824182175488461e-05</v>
+      </c>
+      <c r="F35">
+        <v>0.1356117546275346</v>
+      </c>
+      <c r="G35">
+        <v>0.09595440210978591</v>
+      </c>
+      <c r="H35">
+        <v>0.3676621342181685</v>
+      </c>
+      <c r="I35">
+        <v>0.002016958486374492</v>
+      </c>
+      <c r="K35">
+        <v>0.004351990794318993</v>
+      </c>
+      <c r="L35">
+        <v>0.01870243183156141</v>
+      </c>
+      <c r="M35">
+        <v>0.03096242189221329</v>
+      </c>
+      <c r="P35">
+        <v>0.07018361150297996</v>
+      </c>
+      <c r="Q35">
+        <v>0.1994166973742053</v>
+      </c>
+      <c r="S35">
+        <v>0.01773163133166879</v>
+      </c>
+      <c r="T35">
+        <v>0.002818663473573721</v>
+      </c>
+      <c r="V35">
+        <v>0.4533891905484833</v>
+      </c>
+      <c r="W35">
+        <v>0.1462597808525198</v>
+      </c>
+      <c r="Y35">
+        <v>0.0495151608568718</v>
+      </c>
+      <c r="Z35">
+        <v>0.003906611999333094</v>
+      </c>
+      <c r="AA35">
+        <v>0.04593580716001219</v>
+      </c>
+      <c r="AB35">
+        <v>0.01362148289198831</v>
+      </c>
+      <c r="AD35">
+        <v>0.02005413227179578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36">
+        <v>-0.3366764548735487</v>
+      </c>
+      <c r="D36">
+        <v>0.4859001253864032</v>
+      </c>
+      <c r="E36">
+        <v>0.6351812815859159</v>
+      </c>
+      <c r="F36">
+        <v>0.3067343769121642</v>
+      </c>
+      <c r="G36">
+        <v>0.3644396429850872</v>
+      </c>
+      <c r="H36">
+        <v>0.1352535216286468</v>
+      </c>
+      <c r="I36">
+        <v>0.5352972818150437</v>
+      </c>
+      <c r="L36">
+        <v>0.5351312260051285</v>
+      </c>
+      <c r="M36">
+        <v>0.4921033296411319</v>
+      </c>
+      <c r="P36">
+        <v>-0.3521320598103033</v>
+      </c>
+      <c r="Q36">
+        <v>0.1118799357444892</v>
+      </c>
+      <c r="T36">
+        <v>-0.7846672183859986</v>
+      </c>
+      <c r="V36">
+        <v>-0.5844658287542244</v>
+      </c>
+      <c r="W36">
+        <v>0.2618276068199457</v>
+      </c>
+      <c r="Y36">
+        <v>0.4985679690111131</v>
+      </c>
+      <c r="Z36">
+        <v>0.5679993498050265</v>
+      </c>
+      <c r="AA36">
+        <v>-0.2707803048920457</v>
+      </c>
+      <c r="AB36">
+        <v>0.7238367830147894</v>
+      </c>
+      <c r="AD36">
+        <v>0.5299077933331193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>0.2391795048344974</v>
+      </c>
+      <c r="D37">
+        <v>0.07814494597371828</v>
+      </c>
+      <c r="E37">
+        <v>0.01465451762305289</v>
+      </c>
+      <c r="F37">
+        <v>0.2861177067470843</v>
+      </c>
+      <c r="G37">
+        <v>0.2001628730399085</v>
+      </c>
+      <c r="H37">
+        <v>0.6447857890002264</v>
+      </c>
+      <c r="I37">
+        <v>0.04854087828245612</v>
+      </c>
+      <c r="L37">
+        <v>0.04862402714908249</v>
+      </c>
+      <c r="M37">
+        <v>0.07386245580106107</v>
+      </c>
+      <c r="P37">
+        <v>0.2169252502590045</v>
+      </c>
+      <c r="Q37">
+        <v>0.7033617348685977</v>
+      </c>
+      <c r="T37">
+        <v>0.0008888972556148302</v>
+      </c>
+      <c r="V37">
+        <v>0.02816239671490921</v>
+      </c>
+      <c r="W37">
+        <v>0.3658621337996334</v>
+      </c>
+      <c r="Y37">
+        <v>0.06957933632885469</v>
+      </c>
+      <c r="Z37">
+        <v>0.03409235834876564</v>
+      </c>
+      <c r="AA37">
+        <v>0.3490852292028968</v>
+      </c>
+      <c r="AB37">
+        <v>0.003424706898424977</v>
+      </c>
+      <c r="AD37">
+        <v>0.05129280064275038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38">
+        <v>-0.2279177210813678</v>
+      </c>
+      <c r="E38">
+        <v>-0.6444578759175489</v>
+      </c>
+      <c r="H38">
+        <v>0.2208525403920508</v>
+      </c>
+      <c r="L38">
+        <v>-0.2842482697177419</v>
+      </c>
+      <c r="M38">
+        <v>-0.2216174384710504</v>
+      </c>
+      <c r="V38">
+        <v>0.2032481348581766</v>
+      </c>
+      <c r="W38">
+        <v>-0.2562906180060464</v>
+      </c>
+      <c r="Y38">
+        <v>-0.6178086574894632</v>
+      </c>
+      <c r="Z38">
+        <v>-0.3996373584099708</v>
+      </c>
+      <c r="AA38">
+        <v>0.1662970311927949</v>
+      </c>
+      <c r="AB38">
+        <v>-0.9096096544876534</v>
+      </c>
+      <c r="AD38">
+        <v>-0.2771941757145759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39">
+        <v>0.4332275227855987</v>
+      </c>
+      <c r="E39">
+        <v>0.01284908001122605</v>
+      </c>
+      <c r="H39">
+        <v>0.4479992721635928</v>
+      </c>
+      <c r="L39">
+        <v>0.3246645035489702</v>
+      </c>
+      <c r="M39">
+        <v>0.4463881624313019</v>
+      </c>
+      <c r="V39">
+        <v>0.4858586684644012</v>
+      </c>
+      <c r="W39">
+        <v>0.3764525444433794</v>
+      </c>
+      <c r="Y39">
+        <v>0.01854926362159388</v>
+      </c>
+      <c r="Z39">
+        <v>0.1568604876440908</v>
+      </c>
+      <c r="AA39">
+        <v>0.5699025499094661</v>
+      </c>
+      <c r="AB39">
+        <v>6.465164047841518e-06</v>
+      </c>
+      <c r="AD39">
+        <v>0.3373319970460566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>-0.9415519120876082</v>
+      </c>
+      <c r="D40">
+        <v>0.9866297991009901</v>
+      </c>
+      <c r="E40">
+        <v>0.8980031259170976</v>
+      </c>
+      <c r="F40">
+        <v>0.9305053542256255</v>
+      </c>
+      <c r="G40">
+        <v>0.9489836819759859</v>
+      </c>
+      <c r="H40">
+        <v>0.8421009081785956</v>
+      </c>
+      <c r="I40">
+        <v>0.9559420265200083</v>
+      </c>
+      <c r="K40">
+        <v>0.984840291613192</v>
+      </c>
+      <c r="L40">
+        <v>0.9882978780160575</v>
+      </c>
+      <c r="M40">
+        <v>0.9835576888358389</v>
+      </c>
+      <c r="N40">
+        <v>0.7018780274538197</v>
+      </c>
+      <c r="P40">
+        <v>-0.957342300454992</v>
+      </c>
+      <c r="Q40">
+        <v>0.816778367171058</v>
+      </c>
+      <c r="R40">
+        <v>0.6822256011325097</v>
+      </c>
+      <c r="S40">
+        <v>0.5286134275886356</v>
+      </c>
+      <c r="T40">
+        <v>-0.3236926379216787</v>
+      </c>
+      <c r="V40">
+        <v>-0.4688819233857645</v>
+      </c>
+      <c r="W40">
+        <v>0.46213202596571</v>
+      </c>
+      <c r="Y40">
+        <v>0.2307875712604792</v>
+      </c>
+      <c r="Z40">
+        <v>0.9925927056820809</v>
+      </c>
+      <c r="AA40">
+        <v>-0.9227652164637031</v>
+      </c>
+      <c r="AB40">
+        <v>0.2343728716419036</v>
+      </c>
+      <c r="AD40">
+        <v>0.9878270819847794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>5.070927450428711e-07</v>
+      </c>
+      <c r="D41">
+        <v>8.013903227033721e-11</v>
+      </c>
+      <c r="E41">
+        <v>1.300604294402339e-05</v>
+      </c>
+      <c r="F41">
+        <v>1.398393103962863e-06</v>
+      </c>
+      <c r="G41">
+        <v>2.279229051954324e-07</v>
+      </c>
+      <c r="H41">
+        <v>0.0001577969431168596</v>
+      </c>
+      <c r="I41">
+        <v>9.600171103157457e-08</v>
+      </c>
+      <c r="K41">
+        <v>1.696238162751209e-10</v>
+      </c>
+      <c r="L41">
+        <v>3.615465864411619e-11</v>
+      </c>
+      <c r="M41">
+        <v>2.753707730375214e-10</v>
+      </c>
+      <c r="N41">
+        <v>0.005140567723755876</v>
+      </c>
+      <c r="P41">
+        <v>7.933085269239952e-08</v>
+      </c>
+      <c r="Q41">
+        <v>0.0003634467411028105</v>
+      </c>
+      <c r="R41">
+        <v>0.007188036006312927</v>
+      </c>
+      <c r="S41">
+        <v>0.05197022589410726</v>
+      </c>
+      <c r="T41">
+        <v>0.258914191529214</v>
+      </c>
+      <c r="V41">
+        <v>0.09078826014927824</v>
+      </c>
+      <c r="W41">
+        <v>0.0961765738395184</v>
+      </c>
+      <c r="Y41">
+        <v>0.4272980991620198</v>
+      </c>
+      <c r="Z41">
+        <v>2.347178393391406e-12</v>
+      </c>
+      <c r="AA41">
+        <v>2.590494686247586e-06</v>
+      </c>
+      <c r="AB41">
+        <v>0.4199485889904064</v>
+      </c>
+      <c r="AD41">
+        <v>4.576194994343985e-11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>0.4930506018230917</v>
+      </c>
+      <c r="D42">
+        <v>-0.5067358528122603</v>
+      </c>
+      <c r="E42">
+        <v>-0.4216523232958491</v>
+      </c>
+      <c r="F42">
+        <v>-0.4742824741705531</v>
+      </c>
+      <c r="G42">
+        <v>-0.4899774547988424</v>
+      </c>
+      <c r="H42">
+        <v>-0.4077711566403255</v>
+      </c>
+      <c r="L42">
+        <v>-0.51948377097795</v>
+      </c>
+      <c r="M42">
+        <v>-0.5090945111520602</v>
+      </c>
+      <c r="Z42">
+        <v>-0.4962925808977488</v>
+      </c>
+      <c r="AA42">
+        <v>0.4181441805283261</v>
+      </c>
+      <c r="AD42">
+        <v>-0.5191276107034876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>0.07322345271836835</v>
+      </c>
+      <c r="D43">
+        <v>0.06442438508207178</v>
+      </c>
+      <c r="E43">
+        <v>0.1331876238893995</v>
+      </c>
+      <c r="F43">
+        <v>0.086631548570117</v>
+      </c>
+      <c r="G43">
+        <v>0.07531088160066557</v>
+      </c>
+      <c r="H43">
+        <v>0.147813973456097</v>
+      </c>
+      <c r="L43">
+        <v>0.0569338286934855</v>
+      </c>
+      <c r="M43">
+        <v>0.06298808520775795</v>
+      </c>
+      <c r="Z43">
+        <v>0.07106618047075787</v>
+      </c>
+      <c r="AA43">
+        <v>0.1367882617861958</v>
+      </c>
+      <c r="AD43">
+        <v>0.05713414187745085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>-0.3524501117253869</v>
+      </c>
+      <c r="D44">
+        <v>0.4285171166971506</v>
+      </c>
+      <c r="E44">
+        <v>0.5418048738284147</v>
+      </c>
+      <c r="F44">
+        <v>0.3744826253504526</v>
+      </c>
+      <c r="G44">
+        <v>0.3816575549402534</v>
+      </c>
+      <c r="H44">
+        <v>0.341116285100959</v>
+      </c>
+      <c r="L44">
+        <v>0.422917973709226</v>
+      </c>
+      <c r="M44">
+        <v>0.4253971002932916</v>
+      </c>
+      <c r="Y44">
+        <v>0.5771765058903472</v>
+      </c>
+      <c r="Z44">
+        <v>0.4729255170758327</v>
+      </c>
+      <c r="AA44">
+        <v>-0.4552319850934611</v>
+      </c>
+      <c r="AB44">
+        <v>0.4202103963306495</v>
+      </c>
+      <c r="AD44">
+        <v>0.4217011835467923</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>0.2164813947814228</v>
+      </c>
+      <c r="D45">
+        <v>0.1263271933536008</v>
+      </c>
+      <c r="E45">
+        <v>0.04536315671200453</v>
+      </c>
+      <c r="F45">
+        <v>0.1871111026418692</v>
+      </c>
+      <c r="G45">
+        <v>0.1781289941527255</v>
+      </c>
+      <c r="H45">
+        <v>0.2326490667576794</v>
+      </c>
+      <c r="L45">
+        <v>0.1319043825813412</v>
+      </c>
+      <c r="M45">
+        <v>0.129414942984969</v>
+      </c>
+      <c r="Y45">
+        <v>0.03068376026917407</v>
+      </c>
+      <c r="Z45">
+        <v>0.0876631853615457</v>
+      </c>
+      <c r="AA45">
+        <v>0.1019101122551916</v>
+      </c>
+      <c r="AB45">
+        <v>0.1346597756739613</v>
+      </c>
+      <c r="AD45">
+        <v>0.133137929595718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46">
+        <v>0.2915082504446647</v>
+      </c>
+      <c r="E46">
+        <v>0.2916162494738435</v>
+      </c>
+      <c r="H46">
+        <v>-0.1191045464126912</v>
+      </c>
+      <c r="I46">
+        <v>0.2762981976168306</v>
+      </c>
+      <c r="K46">
+        <v>0.2165463965121501</v>
+      </c>
+      <c r="N46">
+        <v>-0.2472066162365221</v>
+      </c>
+      <c r="Q46">
+        <v>-0.270226409466627</v>
+      </c>
+      <c r="R46">
+        <v>0.4137793555131284</v>
+      </c>
+      <c r="S46">
+        <v>0.3432032364918222</v>
+      </c>
+      <c r="T46">
+        <v>-0.4603461791425696</v>
+      </c>
+      <c r="U46">
+        <v>0.1025427786790833</v>
+      </c>
+      <c r="W46">
+        <v>0.5933618117209785</v>
+      </c>
+      <c r="X46">
+        <v>-0.2520394332539116</v>
+      </c>
+      <c r="Y46">
+        <v>0.9667550799532345</v>
+      </c>
+      <c r="Z46">
+        <v>0.1539529444977463</v>
+      </c>
+      <c r="AB46">
+        <v>0.4842228298751492</v>
+      </c>
+      <c r="AC46">
+        <v>0.1112207306042881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47">
+        <v>0.3119127139700139</v>
+      </c>
+      <c r="E47">
+        <v>0.3117252152487768</v>
+      </c>
+      <c r="H47">
+        <v>0.6850748309194391</v>
+      </c>
+      <c r="I47">
+        <v>0.3389604196323454</v>
+      </c>
+      <c r="K47">
+        <v>0.4571226026161918</v>
+      </c>
+      <c r="N47">
+        <v>0.3941775511894097</v>
+      </c>
+      <c r="Q47">
+        <v>0.3501106841825443</v>
+      </c>
+      <c r="R47">
+        <v>0.141358374802</v>
+      </c>
+      <c r="S47">
+        <v>0.2296177668685404</v>
+      </c>
+      <c r="T47">
+        <v>0.09763849883544157</v>
+      </c>
+      <c r="U47">
+        <v>0.7272172831757033</v>
+      </c>
+      <c r="W47">
+        <v>0.02529871659723391</v>
+      </c>
+      <c r="X47">
+        <v>0.3846937137496982</v>
+      </c>
+      <c r="Y47">
+        <v>1.814267960118072e-08</v>
+      </c>
+      <c r="Z47">
+        <v>0.5992470759127868</v>
+      </c>
+      <c r="AB47">
+        <v>0.07933236199008556</v>
+      </c>
+      <c r="AC47">
+        <v>0.7050379262100706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48">
+        <v>-0.4394704118337099</v>
+      </c>
+      <c r="C48">
+        <v>-0.1293817870763536</v>
+      </c>
+      <c r="D48">
+        <v>0.2806520379359365</v>
+      </c>
+      <c r="E48">
+        <v>-0.1498935220694305</v>
+      </c>
+      <c r="F48">
+        <v>0.451027215086444</v>
+      </c>
+      <c r="G48">
+        <v>0.4136340634467619</v>
+      </c>
+      <c r="H48">
+        <v>0.5618760862762732</v>
+      </c>
+      <c r="J48">
+        <v>0.4759921841593305</v>
+      </c>
+      <c r="K48">
+        <v>0.1673110444726686</v>
+      </c>
+      <c r="L48">
+        <v>0.242291929344223</v>
+      </c>
+      <c r="M48">
+        <v>0.284571027615764</v>
+      </c>
+      <c r="N48">
+        <v>0.6662736359539257</v>
+      </c>
+      <c r="P48">
+        <v>-0.401621127511158</v>
+      </c>
+      <c r="Q48">
+        <v>0.431348836917318</v>
+      </c>
+      <c r="R48">
+        <v>-0.1576983878400333</v>
+      </c>
+      <c r="S48">
+        <v>-0.2367710102005441</v>
+      </c>
+      <c r="T48">
+        <v>0.6379009101337739</v>
+      </c>
+      <c r="U48">
+        <v>0.1887082374345465</v>
+      </c>
+      <c r="V48">
+        <v>-0.2216804123570119</v>
+      </c>
+      <c r="Y48">
+        <v>-0.3075000963662727</v>
+      </c>
+      <c r="Z48">
+        <v>0.1270053912288918</v>
+      </c>
+      <c r="AA48">
+        <v>-0.2279107904848021</v>
+      </c>
+      <c r="AB48">
+        <v>-0.664928730699428</v>
+      </c>
+      <c r="AC48">
+        <v>-0.1680054518909092</v>
+      </c>
+      <c r="AD48">
+        <v>0.2465270322932577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49">
+        <v>0.1158823156471559</v>
+      </c>
+      <c r="C49">
+        <v>0.6593370100146186</v>
+      </c>
+      <c r="D49">
+        <v>0.3310884662854489</v>
+      </c>
+      <c r="E49">
+        <v>0.6090250427059071</v>
+      </c>
+      <c r="F49">
+        <v>0.1055174237353005</v>
+      </c>
+      <c r="G49">
+        <v>0.1415122279509717</v>
+      </c>
+      <c r="H49">
+        <v>0.03651755009524357</v>
+      </c>
+      <c r="J49">
+        <v>0.08534387042380195</v>
+      </c>
+      <c r="K49">
+        <v>0.5675187919054551</v>
+      </c>
+      <c r="L49">
+        <v>0.4039465939692519</v>
+      </c>
+      <c r="M49">
+        <v>0.3240914300583431</v>
+      </c>
+      <c r="N49">
+        <v>0.00927402231973906</v>
+      </c>
+      <c r="P49">
+        <v>0.1546213616166361</v>
+      </c>
+      <c r="Q49">
+        <v>0.123568184687252</v>
+      </c>
+      <c r="R49">
+        <v>0.5902807027979146</v>
+      </c>
+      <c r="S49">
+        <v>0.4150689213510245</v>
+      </c>
+      <c r="T49">
+        <v>0.01410633657820121</v>
+      </c>
+      <c r="U49">
+        <v>0.5182167669133023</v>
+      </c>
+      <c r="V49">
+        <v>0.4462556479028588</v>
+      </c>
+      <c r="Y49">
+        <v>0.2848546163677808</v>
+      </c>
+      <c r="Z49">
+        <v>0.6652584806950399</v>
+      </c>
+      <c r="AA49">
+        <v>0.4332418919582872</v>
+      </c>
+      <c r="AB49">
+        <v>0.009469171564416123</v>
+      </c>
+      <c r="AC49">
+        <v>0.5658887652351382</v>
+      </c>
+      <c r="AD49">
+        <v>0.3955209209814162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>0.1937009926073553</v>
+      </c>
+      <c r="E50">
+        <v>0.4256592403019175</v>
+      </c>
+      <c r="L50">
+        <v>0.2250574067636299</v>
+      </c>
+      <c r="M50">
+        <v>0.1975481933143238</v>
+      </c>
+      <c r="Z50">
+        <v>0.2894009828246335</v>
+      </c>
+      <c r="AA50">
+        <v>-0.1287240402151887</v>
+      </c>
+      <c r="AB50">
+        <v>0.5916271218644046</v>
+      </c>
+      <c r="AD50">
+        <v>0.2207336662670275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51">
+        <v>0.5069977335910145</v>
+      </c>
+      <c r="E51">
+        <v>0.1291535768620236</v>
+      </c>
+      <c r="L51">
+        <v>0.4391780903538655</v>
+      </c>
+      <c r="M51">
+        <v>0.4984292428360579</v>
+      </c>
+      <c r="Z51">
+        <v>0.3155840767785794</v>
+      </c>
+      <c r="AA51">
+        <v>0.660974136810821</v>
+      </c>
+      <c r="AB51">
+        <v>0.02583919097589581</v>
+      </c>
+      <c r="AD51">
+        <v>0.448249914757045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <v>-0.9199192931224099</v>
+      </c>
+      <c r="AB52">
+        <v>0.2908067715009423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53">
+        <v>3.19845257058506e-06</v>
+      </c>
+      <c r="AB53">
+        <v>0.313132132310821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54">
+        <v>0.9276025065413606</v>
+      </c>
+      <c r="D54">
+        <v>-0.936508232852466</v>
+      </c>
+      <c r="E54">
+        <v>-0.82784188567971</v>
+      </c>
+      <c r="F54">
+        <v>-0.9193749403964225</v>
+      </c>
+      <c r="G54">
+        <v>-0.9234252288570445</v>
+      </c>
+      <c r="H54">
+        <v>-0.8640098906536169</v>
+      </c>
+      <c r="Z54">
+        <v>-0.9285681212476784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
+      <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55">
+        <v>1.776166849266588e-06</v>
+      </c>
+      <c r="D55">
+        <v>8.240649436045054e-07</v>
+      </c>
+      <c r="E55">
+        <v>0.0002565696871954057</v>
+      </c>
+      <c r="F55">
+        <v>3.327130155316687e-06</v>
+      </c>
+      <c r="G55">
+        <v>2.464067656812039e-06</v>
+      </c>
+      <c r="H55">
+        <v>6.768492376426134e-05</v>
+      </c>
+      <c r="Z55">
+        <v>1.642175866591374e-06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
+      <c r="A56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56">
+        <v>-0.2417628141726316</v>
+      </c>
+      <c r="D56">
+        <v>0.2483869083019626</v>
+      </c>
+      <c r="E56">
+        <v>0.3563771186527701</v>
+      </c>
+      <c r="F56">
+        <v>0.2373537699554304</v>
+      </c>
+      <c r="G56">
+        <v>0.2289499229196366</v>
+      </c>
+      <c r="H56">
+        <v>0.2223385453916692</v>
+      </c>
+      <c r="I56">
+        <v>0.3071726563771821</v>
+      </c>
+      <c r="J56">
+        <v>0.2555917696644663</v>
+      </c>
+      <c r="K56">
+        <v>0.2123116426999917</v>
+      </c>
+      <c r="L56">
+        <v>0.2351293053454174</v>
+      </c>
+      <c r="M56">
+        <v>0.2335900693072844</v>
+      </c>
+      <c r="N56">
+        <v>0.169969433664725</v>
+      </c>
+      <c r="P56">
+        <v>-0.2606648750233184</v>
+      </c>
+      <c r="Q56">
+        <v>0.3948848357385515</v>
+      </c>
+      <c r="R56">
+        <v>0.169668134351492</v>
+      </c>
+      <c r="S56">
+        <v>-0.1110303683463578</v>
+      </c>
+      <c r="U56">
+        <v>0.2633196316404157</v>
+      </c>
+      <c r="V56">
+        <v>-0.2243451895936726</v>
+      </c>
+      <c r="W56">
+        <v>0.2819460786069681</v>
+      </c>
+      <c r="Z56">
+        <v>0.2938606927673573</v>
+      </c>
+      <c r="AA56">
+        <v>-0.3851439056768214</v>
+      </c>
+      <c r="AB56">
+        <v>-0.1190278639928525</v>
+      </c>
+      <c r="AD56">
+        <v>0.2361495948089921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57">
+        <v>0.4050057669783032</v>
+      </c>
+      <c r="D57">
+        <v>0.3918501144095579</v>
+      </c>
+      <c r="E57">
+        <v>0.2110478433700363</v>
+      </c>
+      <c r="F57">
+        <v>0.4138875513820208</v>
+      </c>
+      <c r="G57">
+        <v>0.4310901389580417</v>
+      </c>
+      <c r="H57">
+        <v>0.4448719180417211</v>
+      </c>
+      <c r="I57">
+        <v>0.2853943427076897</v>
+      </c>
+      <c r="J57">
+        <v>0.3778007589563415</v>
+      </c>
+      <c r="K57">
+        <v>0.4661821643480468</v>
+      </c>
+      <c r="L57">
+        <v>0.4184062679870516</v>
+      </c>
+      <c r="M57">
+        <v>0.4215477230958519</v>
+      </c>
+      <c r="N57">
+        <v>0.5612891941549543</v>
+      </c>
+      <c r="P57">
+        <v>0.368072532684109</v>
+      </c>
+      <c r="Q57">
+        <v>0.162311207260856</v>
+      </c>
+      <c r="R57">
+        <v>0.561993804255563</v>
+      </c>
+      <c r="S57">
+        <v>0.705522201039164</v>
+      </c>
+      <c r="U57">
+        <v>0.3630363037128796</v>
+      </c>
+      <c r="V57">
+        <v>0.4406660865737791</v>
+      </c>
+      <c r="W57">
+        <v>0.3287687509317552</v>
+      </c>
+      <c r="Z57">
+        <v>0.3078432181953083</v>
+      </c>
+      <c r="AA57">
+        <v>0.1738669263453268</v>
+      </c>
+      <c r="AB57">
+        <v>0.6852681097705362</v>
+      </c>
+      <c r="AD57">
+        <v>0.4163305578130474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
+      <c r="A58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58">
+        <v>-0.9661576721544753</v>
+      </c>
+      <c r="D58">
+        <v>0.9982558235212279</v>
+      </c>
+      <c r="E58">
+        <v>0.8517103490030778</v>
+      </c>
+      <c r="F58">
+        <v>0.955391807257588</v>
+      </c>
+      <c r="G58">
+        <v>0.972861922077549</v>
+      </c>
+      <c r="H58">
+        <v>0.8733928568316218</v>
+      </c>
+      <c r="L58">
+        <v>0.9999593292454498</v>
+      </c>
+      <c r="M58">
+        <v>0.998133568937652</v>
+      </c>
+      <c r="Z58">
+        <v>0.9841636881728756</v>
+      </c>
+      <c r="AA58">
+        <v>-0.9262532120176984</v>
+      </c>
+      <c r="AB58">
+        <v>0.1678762364993904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
+      <c r="A59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59">
+        <v>2.016265259934962e-08</v>
+      </c>
+      <c r="D59">
+        <v>4.049587702994962e-16</v>
+      </c>
+      <c r="E59">
+        <v>0.0001106612553298301</v>
+      </c>
+      <c r="F59">
+        <v>1.032995754971289e-07</v>
+      </c>
+      <c r="G59">
+        <v>5.439707016601134e-09</v>
+      </c>
+      <c r="H59">
+        <v>4.501948334655502e-05</v>
+      </c>
+      <c r="L59">
+        <v>6.533524533421016e-26</v>
+      </c>
+      <c r="M59">
+        <v>6.078915736666956e-16</v>
+      </c>
+      <c r="Z59">
+        <v>2.201063096767192e-10</v>
+      </c>
+      <c r="AA59">
+        <v>1.978374845024679e-06</v>
+      </c>
+      <c r="AB59">
+        <v>0.5661919328215899</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>